--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_ba.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_ba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08BA87F-0DDE-41CC-9B28-06564FD64982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024A4809-98C9-9E48-A867-DA3E07C9B393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2525,16 +2525,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2558,9 +2552,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2866,20 +2859,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:F422"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="K422" sqref="K422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -2893,7 +2886,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2900108</v>
       </c>
@@ -2904,7 +2897,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2900207</v>
       </c>
@@ -2915,7 +2908,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2900306</v>
       </c>
@@ -2926,7 +2919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2900355</v>
       </c>
@@ -2937,7 +2930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2900405</v>
       </c>
@@ -2948,7 +2941,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2900504</v>
       </c>
@@ -2959,7 +2952,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2900603</v>
       </c>
@@ -2970,7 +2963,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2900702</v>
       </c>
@@ -2981,7 +2974,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2900801</v>
       </c>
@@ -2992,7 +2985,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2900900</v>
       </c>
@@ -3003,7 +2996,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2901007</v>
       </c>
@@ -3014,7 +3007,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2901106</v>
       </c>
@@ -3025,7 +3018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2901155</v>
       </c>
@@ -3036,7 +3029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2901205</v>
       </c>
@@ -3047,7 +3040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2901304</v>
       </c>
@@ -3058,7 +3051,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2901353</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2901403</v>
       </c>
@@ -3080,7 +3073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2901502</v>
       </c>
@@ -3091,7 +3084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2901601</v>
       </c>
@@ -3102,7 +3095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2901700</v>
       </c>
@@ -3113,7 +3106,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2901809</v>
       </c>
@@ -3124,7 +3117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2901908</v>
       </c>
@@ -3135,7 +3128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2901957</v>
       </c>
@@ -3146,7 +3139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2902005</v>
       </c>
@@ -3157,7 +3150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2902054</v>
       </c>
@@ -3168,7 +3161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2902104</v>
       </c>
@@ -3179,7 +3172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2902203</v>
       </c>
@@ -3190,7 +3183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2902252</v>
       </c>
@@ -3201,7 +3194,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2902302</v>
       </c>
@@ -3212,7 +3205,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2902401</v>
       </c>
@@ -3223,7 +3216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2902500</v>
       </c>
@@ -3234,7 +3227,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2902609</v>
       </c>
@@ -3245,7 +3238,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2902658</v>
       </c>
@@ -3256,7 +3249,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2902708</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2902807</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2902906</v>
       </c>
@@ -3289,7 +3282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2903003</v>
       </c>
@@ -3300,7 +3293,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2903102</v>
       </c>
@@ -3311,7 +3304,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2903201</v>
       </c>
@@ -3322,7 +3315,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2903235</v>
       </c>
@@ -3333,7 +3326,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2903276</v>
       </c>
@@ -3344,7 +3337,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2903300</v>
       </c>
@@ -3355,7 +3348,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2903409</v>
       </c>
@@ -3366,7 +3359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2903508</v>
       </c>
@@ -3377,7 +3370,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2903607</v>
       </c>
@@ -3388,7 +3381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2903706</v>
       </c>
@@ -3399,7 +3392,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2903805</v>
       </c>
@@ -3410,7 +3403,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2903904</v>
       </c>
@@ -3421,7 +3414,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2903953</v>
       </c>
@@ -3432,7 +3425,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2904001</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2904050</v>
       </c>
@@ -3454,7 +3447,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2904100</v>
       </c>
@@ -3465,7 +3458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2904209</v>
       </c>
@@ -3476,7 +3469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2904308</v>
       </c>
@@ -3487,7 +3480,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2904407</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2904506</v>
       </c>
@@ -3509,7 +3502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2904605</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2904704</v>
       </c>
@@ -3531,7 +3524,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2904753</v>
       </c>
@@ -3542,7 +3535,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2904803</v>
       </c>
@@ -3553,7 +3546,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2904852</v>
       </c>
@@ -3564,7 +3557,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2904902</v>
       </c>
@@ -3575,7 +3568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2905008</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2905107</v>
       </c>
@@ -3597,7 +3590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2905156</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2905206</v>
       </c>
@@ -3619,7 +3612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2905305</v>
       </c>
@@ -3630,7 +3623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2905404</v>
       </c>
@@ -3641,7 +3634,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2905503</v>
       </c>
@@ -3652,7 +3645,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2905602</v>
       </c>
@@ -3663,7 +3656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2905701</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2905800</v>
       </c>
@@ -3685,7 +3678,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2905909</v>
       </c>
@@ -3696,7 +3689,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2906006</v>
       </c>
@@ -3707,7 +3700,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2906105</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2906204</v>
       </c>
@@ -3729,7 +3722,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2906303</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2906402</v>
       </c>
@@ -3751,7 +3744,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2906501</v>
       </c>
@@ -3762,7 +3755,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2906600</v>
       </c>
@@ -3773,7 +3766,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2906709</v>
       </c>
@@ -3784,7 +3777,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2906808</v>
       </c>
@@ -3795,7 +3788,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2906824</v>
       </c>
@@ -3806,7 +3799,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2906857</v>
       </c>
@@ -3817,7 +3810,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2906873</v>
       </c>
@@ -3828,7 +3821,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2906899</v>
       </c>
@@ -3839,7 +3832,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2906907</v>
       </c>
@@ -3850,7 +3843,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2907004</v>
       </c>
@@ -3861,7 +3854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2907103</v>
       </c>
@@ -3872,7 +3865,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2907202</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2907301</v>
       </c>
@@ -3894,7 +3887,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2907400</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2907509</v>
       </c>
@@ -3916,7 +3909,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2907558</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2907608</v>
       </c>
@@ -3938,7 +3931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2907707</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2907806</v>
       </c>
@@ -3960,7 +3953,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2907905</v>
       </c>
@@ -3971,7 +3964,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2908002</v>
       </c>
@@ -3982,7 +3975,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2908101</v>
       </c>
@@ -3993,7 +3986,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2908200</v>
       </c>
@@ -4004,7 +3997,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2908309</v>
       </c>
@@ -4015,7 +4008,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2908408</v>
       </c>
@@ -4026,7 +4019,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2908507</v>
       </c>
@@ -4037,7 +4030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2908606</v>
       </c>
@@ -4048,7 +4041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2908705</v>
       </c>
@@ -4059,7 +4052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2908804</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2908903</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2909000</v>
       </c>
@@ -4092,7 +4085,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2909109</v>
       </c>
@@ -4103,7 +4096,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2909208</v>
       </c>
@@ -4114,7 +4107,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2909307</v>
       </c>
@@ -4125,7 +4118,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2909406</v>
       </c>
@@ -4136,7 +4129,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2909505</v>
       </c>
@@ -4147,7 +4140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2909604</v>
       </c>
@@ -4158,7 +4151,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2909703</v>
       </c>
@@ -4169,7 +4162,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2909802</v>
       </c>
@@ -4180,7 +4173,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2909901</v>
       </c>
@@ -4191,7 +4184,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2910008</v>
       </c>
@@ -4202,7 +4195,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2910057</v>
       </c>
@@ -4213,7 +4206,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2910107</v>
       </c>
@@ -4224,7 +4217,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2910206</v>
       </c>
@@ -4235,7 +4228,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2910305</v>
       </c>
@@ -4246,7 +4239,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2910404</v>
       </c>
@@ -4257,7 +4250,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2910503</v>
       </c>
@@ -4268,7 +4261,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2910602</v>
       </c>
@@ -4279,7 +4272,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2910701</v>
       </c>
@@ -4290,7 +4283,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2910727</v>
       </c>
@@ -4301,7 +4294,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2910750</v>
       </c>
@@ -4312,7 +4305,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2910776</v>
       </c>
@@ -4323,7 +4316,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2910800</v>
       </c>
@@ -4334,7 +4327,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2910859</v>
       </c>
@@ -4345,7 +4338,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2910909</v>
       </c>
@@ -4356,7 +4349,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2911006</v>
       </c>
@@ -4367,7 +4360,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2911105</v>
       </c>
@@ -4378,7 +4371,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2911204</v>
       </c>
@@ -4389,7 +4382,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2911253</v>
       </c>
@@ -4400,7 +4393,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2911303</v>
       </c>
@@ -4411,7 +4404,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2911402</v>
       </c>
@@ -4422,7 +4415,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2911501</v>
       </c>
@@ -4433,7 +4426,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2911600</v>
       </c>
@@ -4444,7 +4437,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2911659</v>
       </c>
@@ -4455,7 +4448,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2911709</v>
       </c>
@@ -4466,7 +4459,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2911808</v>
       </c>
@@ -4477,7 +4470,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2911857</v>
       </c>
@@ -4488,7 +4481,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2911907</v>
       </c>
@@ -4499,7 +4492,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2912004</v>
       </c>
@@ -4510,7 +4503,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2912103</v>
       </c>
@@ -4521,7 +4514,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2912202</v>
       </c>
@@ -4532,7 +4525,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2912301</v>
       </c>
@@ -4543,7 +4536,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2912400</v>
       </c>
@@ -4554,7 +4547,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2912509</v>
       </c>
@@ -4565,7 +4558,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2912608</v>
       </c>
@@ -4576,7 +4569,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2912707</v>
       </c>
@@ -4587,7 +4580,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2912806</v>
       </c>
@@ -4598,7 +4591,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2912905</v>
       </c>
@@ -4609,7 +4602,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2913002</v>
       </c>
@@ -4620,7 +4613,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2913101</v>
       </c>
@@ -4631,7 +4624,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2913200</v>
       </c>
@@ -4642,7 +4635,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2913309</v>
       </c>
@@ -4653,7 +4646,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2913408</v>
       </c>
@@ -4664,7 +4657,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2913457</v>
       </c>
@@ -4675,7 +4668,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2913507</v>
       </c>
@@ -4686,7 +4679,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2913606</v>
       </c>
@@ -4697,7 +4690,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2913705</v>
       </c>
@@ -4708,7 +4701,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2913804</v>
       </c>
@@ -4719,7 +4712,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2913903</v>
       </c>
@@ -4730,7 +4723,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2914000</v>
       </c>
@@ -4741,7 +4734,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2914109</v>
       </c>
@@ -4752,7 +4745,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2914208</v>
       </c>
@@ -4763,7 +4756,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2914307</v>
       </c>
@@ -4774,7 +4767,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2914406</v>
       </c>
@@ -4785,7 +4778,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2914505</v>
       </c>
@@ -4796,7 +4789,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2914604</v>
       </c>
@@ -4807,7 +4800,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2914653</v>
       </c>
@@ -4818,7 +4811,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2914703</v>
       </c>
@@ -4829,7 +4822,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2914802</v>
       </c>
@@ -4840,7 +4833,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2914901</v>
       </c>
@@ -4851,7 +4844,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2915007</v>
       </c>
@@ -4862,7 +4855,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2915106</v>
       </c>
@@ -4873,7 +4866,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2915205</v>
       </c>
@@ -4884,7 +4877,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2915304</v>
       </c>
@@ -4895,7 +4888,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2915353</v>
       </c>
@@ -4906,7 +4899,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2915403</v>
       </c>
@@ -4917,7 +4910,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2915502</v>
       </c>
@@ -4928,7 +4921,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2915601</v>
       </c>
@@ -4939,7 +4932,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2915700</v>
       </c>
@@ -4950,7 +4943,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2915809</v>
       </c>
@@ -4961,7 +4954,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2915908</v>
       </c>
@@ -4972,7 +4965,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2916005</v>
       </c>
@@ -4983,7 +4976,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2916104</v>
       </c>
@@ -4994,7 +4987,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2916203</v>
       </c>
@@ -5005,7 +4998,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2916302</v>
       </c>
@@ -5016,7 +5009,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2916401</v>
       </c>
@@ -5027,7 +5020,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2916500</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2916609</v>
       </c>
@@ -5049,7 +5042,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2916708</v>
       </c>
@@ -5060,7 +5053,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2916807</v>
       </c>
@@ -5071,7 +5064,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2916856</v>
       </c>
@@ -5082,7 +5075,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2916906</v>
       </c>
@@ -5093,7 +5086,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2917003</v>
       </c>
@@ -5104,7 +5097,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2917102</v>
       </c>
@@ -5115,7 +5108,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2917201</v>
       </c>
@@ -5126,7 +5119,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2917300</v>
       </c>
@@ -5137,7 +5130,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2917334</v>
       </c>
@@ -5148,7 +5141,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2917359</v>
       </c>
@@ -5159,7 +5152,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2917409</v>
       </c>
@@ -5170,7 +5163,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2917508</v>
       </c>
@@ -5181,7 +5174,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2917607</v>
       </c>
@@ -5192,7 +5185,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2917706</v>
       </c>
@@ -5203,7 +5196,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2917805</v>
       </c>
@@ -5214,7 +5207,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2917904</v>
       </c>
@@ -5225,7 +5218,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2918001</v>
       </c>
@@ -5236,7 +5229,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2918100</v>
       </c>
@@ -5247,7 +5240,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2918209</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2918308</v>
       </c>
@@ -5269,7 +5262,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2918357</v>
       </c>
@@ -5280,7 +5273,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2918407</v>
       </c>
@@ -5291,7 +5284,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2918456</v>
       </c>
@@ -5302,7 +5295,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2918506</v>
       </c>
@@ -5313,7 +5306,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2918555</v>
       </c>
@@ -5324,7 +5317,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2918605</v>
       </c>
@@ -5335,7 +5328,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2918704</v>
       </c>
@@ -5346,7 +5339,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2918753</v>
       </c>
@@ -5357,7 +5350,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2918803</v>
       </c>
@@ -5368,7 +5361,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2918902</v>
       </c>
@@ -5379,7 +5372,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2919009</v>
       </c>
@@ -5390,7 +5383,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2919058</v>
       </c>
@@ -5401,7 +5394,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2919108</v>
       </c>
@@ -5412,7 +5405,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2919157</v>
       </c>
@@ -5423,7 +5416,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2919207</v>
       </c>
@@ -5434,7 +5427,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2919306</v>
       </c>
@@ -5445,7 +5438,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2919405</v>
       </c>
@@ -5456,7 +5449,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2919504</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2919553</v>
       </c>
@@ -5478,7 +5471,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2919603</v>
       </c>
@@ -5489,7 +5482,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2919702</v>
       </c>
@@ -5500,7 +5493,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2919801</v>
       </c>
@@ -5511,7 +5504,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2919900</v>
       </c>
@@ -5522,7 +5515,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2919926</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2919959</v>
       </c>
@@ -5544,7 +5537,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2920007</v>
       </c>
@@ -5555,7 +5548,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2920106</v>
       </c>
@@ -5566,7 +5559,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2920205</v>
       </c>
@@ -5577,7 +5570,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2920304</v>
       </c>
@@ -5588,7 +5581,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2920403</v>
       </c>
@@ -5599,7 +5592,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2920452</v>
       </c>
@@ -5610,7 +5603,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2920502</v>
       </c>
@@ -5621,7 +5614,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2920601</v>
       </c>
@@ -5632,7 +5625,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2920700</v>
       </c>
@@ -5643,7 +5636,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2920809</v>
       </c>
@@ -5654,7 +5647,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2920908</v>
       </c>
@@ -5665,7 +5658,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2921005</v>
       </c>
@@ -5676,7 +5669,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2921054</v>
       </c>
@@ -5687,7 +5680,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2921104</v>
       </c>
@@ -5698,7 +5691,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2921203</v>
       </c>
@@ -5709,7 +5702,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2921302</v>
       </c>
@@ -5720,7 +5713,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2921401</v>
       </c>
@@ -5731,7 +5724,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2921450</v>
       </c>
@@ -5742,7 +5735,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2921500</v>
       </c>
@@ -5753,7 +5746,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2921609</v>
       </c>
@@ -5764,7 +5757,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2921708</v>
       </c>
@@ -5775,7 +5768,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2921807</v>
       </c>
@@ -5786,7 +5779,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2921906</v>
       </c>
@@ -5797,7 +5790,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2922003</v>
       </c>
@@ -5808,7 +5801,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2922052</v>
       </c>
@@ -5819,7 +5812,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2922102</v>
       </c>
@@ -5830,7 +5823,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2922201</v>
       </c>
@@ -5841,7 +5834,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2922250</v>
       </c>
@@ -5852,7 +5845,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2922300</v>
       </c>
@@ -5863,7 +5856,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2922409</v>
       </c>
@@ -5874,7 +5867,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2922508</v>
       </c>
@@ -5885,7 +5878,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2922607</v>
       </c>
@@ -5896,7 +5889,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2922656</v>
       </c>
@@ -5907,7 +5900,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2922706</v>
       </c>
@@ -5918,7 +5911,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2922730</v>
       </c>
@@ -5929,7 +5922,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2922755</v>
       </c>
@@ -5940,7 +5933,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2922805</v>
       </c>
@@ -5951,7 +5944,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2922854</v>
       </c>
@@ -5962,7 +5955,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2922904</v>
       </c>
@@ -5973,7 +5966,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2923001</v>
       </c>
@@ -5984,7 +5977,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2923035</v>
       </c>
@@ -5995,7 +5988,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2923050</v>
       </c>
@@ -6006,7 +5999,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2923100</v>
       </c>
@@ -6017,7 +6010,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2923209</v>
       </c>
@@ -6028,7 +6021,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2923308</v>
       </c>
@@ -6039,7 +6032,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2923357</v>
       </c>
@@ -6050,7 +6043,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2923407</v>
       </c>
@@ -6061,7 +6054,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2923506</v>
       </c>
@@ -6072,7 +6065,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2923605</v>
       </c>
@@ -6083,7 +6076,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2923704</v>
       </c>
@@ -6094,7 +6087,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2923803</v>
       </c>
@@ -6105,7 +6098,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2923902</v>
       </c>
@@ -6116,7 +6109,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2924009</v>
       </c>
@@ -6127,7 +6120,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2924058</v>
       </c>
@@ -6138,7 +6131,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2924108</v>
       </c>
@@ -6149,7 +6142,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2924207</v>
       </c>
@@ -6160,7 +6153,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2924306</v>
       </c>
@@ -6171,7 +6164,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2924405</v>
       </c>
@@ -6182,7 +6175,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2924504</v>
       </c>
@@ -6193,7 +6186,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2924603</v>
       </c>
@@ -6204,7 +6197,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2924652</v>
       </c>
@@ -6215,7 +6208,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2924678</v>
       </c>
@@ -6226,7 +6219,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2924702</v>
       </c>
@@ -6237,7 +6230,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2924801</v>
       </c>
@@ -6248,7 +6241,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2924900</v>
       </c>
@@ -6259,7 +6252,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2925006</v>
       </c>
@@ -6270,7 +6263,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2925105</v>
       </c>
@@ -6281,7 +6274,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2925204</v>
       </c>
@@ -6292,7 +6285,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2925253</v>
       </c>
@@ -6303,7 +6296,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2925303</v>
       </c>
@@ -6314,7 +6307,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2925402</v>
       </c>
@@ -6325,7 +6318,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2925501</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2925600</v>
       </c>
@@ -6347,7 +6340,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2925709</v>
       </c>
@@ -6358,7 +6351,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2925758</v>
       </c>
@@ -6369,7 +6362,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2925808</v>
       </c>
@@ -6380,7 +6373,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2925907</v>
       </c>
@@ -6391,7 +6384,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2925931</v>
       </c>
@@ -6402,7 +6395,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2925956</v>
       </c>
@@ -6413,7 +6406,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2926004</v>
       </c>
@@ -6424,7 +6417,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2926103</v>
       </c>
@@ -6435,7 +6428,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2926202</v>
       </c>
@@ -6446,7 +6439,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2926301</v>
       </c>
@@ -6457,7 +6450,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2926400</v>
       </c>
@@ -6468,7 +6461,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2926509</v>
       </c>
@@ -6479,7 +6472,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2926608</v>
       </c>
@@ -6490,7 +6483,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2926657</v>
       </c>
@@ -6501,7 +6494,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2926707</v>
       </c>
@@ -6512,7 +6505,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2926806</v>
       </c>
@@ -6523,7 +6516,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2926905</v>
       </c>
@@ -6534,7 +6527,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2927002</v>
       </c>
@@ -6545,7 +6538,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2927101</v>
       </c>
@@ -6556,7 +6549,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2927200</v>
       </c>
@@ -6567,7 +6560,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2927309</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2927408</v>
       </c>
@@ -6589,7 +6582,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2927507</v>
       </c>
@@ -6600,7 +6593,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2927606</v>
       </c>
@@ -6611,7 +6604,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2927705</v>
       </c>
@@ -6622,7 +6615,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2927804</v>
       </c>
@@ -6633,7 +6626,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2927903</v>
       </c>
@@ -6644,7 +6637,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2928000</v>
       </c>
@@ -6655,7 +6648,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2928059</v>
       </c>
@@ -6666,7 +6659,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2928109</v>
       </c>
@@ -6677,7 +6670,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2928208</v>
       </c>
@@ -6688,7 +6681,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2928307</v>
       </c>
@@ -6699,7 +6692,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2928406</v>
       </c>
@@ -6710,7 +6703,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2928505</v>
       </c>
@@ -6721,7 +6714,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2928604</v>
       </c>
@@ -6732,7 +6725,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2928703</v>
       </c>
@@ -6743,7 +6736,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2928802</v>
       </c>
@@ -6754,7 +6747,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2928901</v>
       </c>
@@ -6765,7 +6758,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2928950</v>
       </c>
@@ -6776,7 +6769,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2929008</v>
       </c>
@@ -6787,7 +6780,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2929057</v>
       </c>
@@ -6798,7 +6791,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2929107</v>
       </c>
@@ -6809,7 +6802,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2929206</v>
       </c>
@@ -6820,7 +6813,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2929255</v>
       </c>
@@ -6831,7 +6824,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2929305</v>
       </c>
@@ -6842,7 +6835,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2929354</v>
       </c>
@@ -6853,7 +6846,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2929370</v>
       </c>
@@ -6864,7 +6857,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2929404</v>
       </c>
@@ -6875,7 +6868,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2929503</v>
       </c>
@@ -6886,7 +6879,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2929602</v>
       </c>
@@ -6897,7 +6890,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2929701</v>
       </c>
@@ -6908,7 +6901,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2929750</v>
       </c>
@@ -6919,7 +6912,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2929800</v>
       </c>
@@ -6930,7 +6923,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2929909</v>
       </c>
@@ -6941,7 +6934,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2930006</v>
       </c>
@@ -6952,7 +6945,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2930105</v>
       </c>
@@ -6963,7 +6956,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2930154</v>
       </c>
@@ -6974,7 +6967,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2930204</v>
       </c>
@@ -6985,7 +6978,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2930303</v>
       </c>
@@ -6996,7 +6989,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2930402</v>
       </c>
@@ -7007,7 +7000,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2930501</v>
       </c>
@@ -7018,7 +7011,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2930600</v>
       </c>
@@ -7029,7 +7022,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2930709</v>
       </c>
@@ -7040,7 +7033,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2930758</v>
       </c>
@@ -7051,7 +7044,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2930766</v>
       </c>
@@ -7062,7 +7055,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2930774</v>
       </c>
@@ -7073,7 +7066,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2930808</v>
       </c>
@@ -7084,7 +7077,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2930907</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2931004</v>
       </c>
@@ -7106,7 +7099,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2931053</v>
       </c>
@@ -7117,7 +7110,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2931103</v>
       </c>
@@ -7128,7 +7121,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2931202</v>
       </c>
@@ -7139,7 +7132,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2931301</v>
       </c>
@@ -7150,7 +7143,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2931350</v>
       </c>
@@ -7161,7 +7154,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2931400</v>
       </c>
@@ -7172,7 +7165,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2931509</v>
       </c>
@@ -7183,7 +7176,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2931608</v>
       </c>
@@ -7194,7 +7187,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2931707</v>
       </c>
@@ -7205,7 +7198,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2931806</v>
       </c>
@@ -7216,7 +7209,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2931905</v>
       </c>
@@ -7227,7 +7220,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2932002</v>
       </c>
@@ -7238,7 +7231,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2932101</v>
       </c>
@@ -7249,7 +7242,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2932200</v>
       </c>
@@ -7260,7 +7253,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2932309</v>
       </c>
@@ -7271,7 +7264,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2932408</v>
       </c>
@@ -7282,7 +7275,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2932457</v>
       </c>
@@ -7293,7 +7286,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2932507</v>
       </c>
@@ -7304,7 +7297,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2932606</v>
       </c>
@@ -7315,7 +7308,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2932705</v>
       </c>
@@ -7326,7 +7319,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2932804</v>
       </c>
@@ -7337,7 +7330,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2932903</v>
       </c>
@@ -7348,7 +7341,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2933000</v>
       </c>
@@ -7359,7 +7352,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2933059</v>
       </c>
@@ -7370,7 +7363,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2933109</v>
       </c>
@@ -7381,7 +7374,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2933158</v>
       </c>
@@ -7392,7 +7385,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2933174</v>
       </c>
@@ -7403,7 +7396,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2933208</v>
       </c>
@@ -7414,7 +7407,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2933257</v>
       </c>
@@ -7425,7 +7418,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2933307</v>
       </c>
@@ -7436,7 +7429,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2933406</v>
       </c>
@@ -7447,7 +7440,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2933455</v>
       </c>
@@ -7458,7 +7451,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2933505</v>
       </c>
@@ -7469,7 +7462,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2933604</v>
       </c>
@@ -7479,9 +7472,6 @@
       <c r="C418" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F422" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
